--- a/Forprojekt/Projektplan.xlsx
+++ b/Forprojekt/Projektplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_s_k\Documents\IKT\7.Semester\Forprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_s_k\Documents\IKT\7.Semester\Bachelor-Rapport\Forprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -146,17 +146,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,21 +252,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A3" sqref="A3:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,212 +595,365 @@
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="N3" s="11"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>27</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="2">
         <v>28</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="2">
         <v>29</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="3">
         <v>30</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="1">
         <v>31</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="2">
         <v>32</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="2">
         <v>33</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="3">
         <v>34</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="1">
         <v>35</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="2">
         <v>36</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="2">
         <v>37</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="2">
         <v>38</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>40</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="2">
         <v>41</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="2">
         <v>42</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="3">
         <v>43</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="1">
         <v>44</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="2">
         <v>45</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="2">
         <v>46</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="2">
         <v>47</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="3">
         <v>48</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="1">
         <v>49</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="2">
         <v>50</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="2">
         <v>51</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="6" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="L12:L16"/>
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="K5:K9"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
